--- a/backend/common/primary_data/中学banding信息_new.xlsx
+++ b/backend/common/primary_data/中学banding信息_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880"/>
+    <workbookView windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6282,8 +6282,8 @@
   </sheetPr>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>

--- a/backend/common/primary_data/中学banding信息_new.xlsx
+++ b/backend/common/primary_data/中学banding信息_new.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="983">
   <si>
     <t>school_name</t>
   </si>
@@ -483,6 +483,52 @@
   </si>
   <si>
     <t>德望學校</t>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德望中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德望中學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
   </si>
   <si>
     <t>德信中学</t>
@@ -1892,6 +1938,52 @@
     <t>嶺南衡怡紀念中學</t>
   </si>
   <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岭南衡怡中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嶺南衡怡中學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
     <t>岭南中学</t>
   </si>
   <si>
@@ -2026,6 +2118,88 @@
   </si>
   <si>
     <t>瑪利諾修院學校（中學部）</t>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玛利诺修会学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中学部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瑪利諾修會學校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中學部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"]</t>
+    </r>
   </si>
   <si>
     <t>玛利诺中学</t>
@@ -2412,6 +2586,52 @@
     <t>賽馬會體藝中學</t>
   </si>
   <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛马会艺术中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>賽馬會藝術中學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
     <t>赛马会万钧毅智书院</t>
   </si>
   <si>
@@ -2882,6 +3102,52 @@
     <t>順德聯誼總會胡兆熾中學</t>
   </si>
   <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺德联谊会胡兆炽中学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>順德聯誼會胡兆熾中學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
+  <si>
     <t>顺德联谊总会李兆基中学</t>
   </si>
   <si>
@@ -3038,7 +3304,7 @@
     <t>威靈頓教育機構張沛松紀念中學</t>
   </si>
   <si>
-    <t>衞理中学</t>
+    <t>卫理中学</t>
   </si>
   <si>
     <t>衞理中學</t>
@@ -6282,8 +6548,8 @@
   </sheetPr>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -7045,6477 +7311,6497 @@
       <c r="D46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="47" ht="13.55" customHeight="1" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" ht="13.55" customHeight="1" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" ht="13.55" customHeight="1" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" ht="13.55" customHeight="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" ht="13.55" customHeight="1" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" ht="13.55" customHeight="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" ht="13.55" customHeight="1" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" ht="13.55" customHeight="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" ht="13.55" customHeight="1" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" ht="13.55" customHeight="1" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" ht="13.55" customHeight="1" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" ht="13.55" customHeight="1" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" ht="13.55" customHeight="1" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" ht="13.55" customHeight="1" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" ht="13.55" customHeight="1" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" ht="13.55" customHeight="1" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" ht="13.55" customHeight="1" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" ht="13.55" customHeight="1" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" ht="13.55" customHeight="1" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" ht="13.55" customHeight="1" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" ht="13.55" customHeight="1" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" ht="13.55" customHeight="1" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" ht="13.55" customHeight="1" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" ht="13.55" customHeight="1" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" ht="13.55" customHeight="1" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" ht="13.55" customHeight="1" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" ht="13.55" customHeight="1" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" ht="13.55" customHeight="1" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" ht="13.55" customHeight="1" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" ht="13.55" customHeight="1" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" ht="13.55" customHeight="1" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" ht="13.55" customHeight="1" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" ht="13.55" customHeight="1" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" ht="13.55" customHeight="1" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" ht="13.55" customHeight="1" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
     <row r="83" ht="13.55" customHeight="1" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
     <row r="84" ht="13.55" customHeight="1" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
     <row r="85" ht="13.55" customHeight="1" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" ht="13.55" customHeight="1" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" ht="13.55" customHeight="1" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" ht="13.55" customHeight="1" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" ht="13.55" customHeight="1" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
     <row r="90" ht="13.55" customHeight="1" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" ht="13.55" customHeight="1" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" ht="13.55" customHeight="1" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" ht="13.55" customHeight="1" spans="1:6">
       <c r="A93" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" ht="13.55" customHeight="1" spans="1:6">
       <c r="A94" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" ht="13.55" customHeight="1" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
     <row r="96" ht="13.55" customHeight="1" spans="1:6">
       <c r="A96" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" ht="13.55" customHeight="1" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" ht="13.55" customHeight="1" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
     <row r="99" ht="13.55" customHeight="1" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" ht="13.55" customHeight="1" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
     <row r="101" ht="13.55" customHeight="1" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" ht="13.55" customHeight="1" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
     <row r="103" ht="13.55" customHeight="1" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
     <row r="104" ht="13.55" customHeight="1" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
     <row r="105" ht="13.55" customHeight="1" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
     <row r="106" ht="13.55" customHeight="1" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
     <row r="107" ht="13.55" customHeight="1" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
     <row r="108" ht="13.55" customHeight="1" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
     <row r="109" ht="13.55" customHeight="1" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
     <row r="110" ht="13.55" customHeight="1" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
     <row r="111" ht="13.55" customHeight="1" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
     <row r="112" ht="13.55" customHeight="1" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" ht="13.55" customHeight="1" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
     <row r="114" ht="13.55" customHeight="1" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" ht="13.55" customHeight="1" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
     <row r="116" ht="13.55" customHeight="1" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" ht="13.55" customHeight="1" spans="1:6">
       <c r="A117" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
     <row r="118" ht="13.55" customHeight="1" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
     <row r="119" ht="13.55" customHeight="1" spans="1:6">
       <c r="A119" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
     <row r="120" ht="13.55" customHeight="1" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" ht="13.55" customHeight="1" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" ht="13.55" customHeight="1" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" ht="13.55" customHeight="1" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
     <row r="124" ht="13.55" customHeight="1" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" ht="13.55" customHeight="1" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" ht="13.55" customHeight="1" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" ht="13.55" customHeight="1" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" ht="13.55" customHeight="1" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" ht="13.55" customHeight="1" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" ht="13.55" customHeight="1" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="E130" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" ht="13.55" customHeight="1" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" ht="13.55" customHeight="1" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" ht="13.55" customHeight="1" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" ht="13.55" customHeight="1" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" ht="13.55" customHeight="1" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" ht="13.55" customHeight="1" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" ht="13.55" customHeight="1" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" ht="13.55" customHeight="1" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" ht="13.55" customHeight="1" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" ht="13.55" customHeight="1" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" ht="13.55" customHeight="1" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" ht="13.55" customHeight="1" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" ht="13.55" customHeight="1" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" ht="13.55" customHeight="1" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" ht="13.55" customHeight="1" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" ht="13.55" customHeight="1" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" ht="13.55" customHeight="1" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" ht="13.55" customHeight="1" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" ht="13.55" customHeight="1" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" ht="13.55" customHeight="1" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" ht="13.55" customHeight="1" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" ht="13.55" customHeight="1" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" ht="13.55" customHeight="1" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" ht="13.55" customHeight="1" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" ht="13.55" customHeight="1" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" ht="13.55" customHeight="1" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" ht="13.55" customHeight="1" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
     <row r="158" ht="13.55" customHeight="1" spans="1:6">
       <c r="A158" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
     <row r="159" ht="13.55" customHeight="1" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="160" ht="13.55" customHeight="1" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" ht="13.55" customHeight="1" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" ht="13.55" customHeight="1" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" ht="13.55" customHeight="1" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" ht="13.55" customHeight="1" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" ht="13.55" customHeight="1" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
     <row r="166" ht="13.55" customHeight="1" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
     <row r="167" ht="13.55" customHeight="1" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
     <row r="168" ht="13.55" customHeight="1" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
     <row r="169" ht="13.55" customHeight="1" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
     <row r="170" ht="13.55" customHeight="1" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
     <row r="171" ht="13.55" customHeight="1" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
     <row r="172" ht="13.55" customHeight="1" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
     <row r="173" ht="13.55" customHeight="1" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
     <row r="174" ht="13.55" customHeight="1" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
     <row r="175" ht="13.55" customHeight="1" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
     <row r="176" ht="13.55" customHeight="1" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
     <row r="177" ht="13.55" customHeight="1" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
     <row r="178" ht="13.55" customHeight="1" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
     <row r="179" ht="13.55" customHeight="1" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
     <row r="180" ht="13.55" customHeight="1" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
     <row r="181" ht="13.55" customHeight="1" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
     <row r="182" ht="13.55" customHeight="1" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
     <row r="183" ht="13.55" customHeight="1" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
     <row r="184" ht="13.55" customHeight="1" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
     <row r="185" ht="13.55" customHeight="1" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
     <row r="186" ht="13.55" customHeight="1" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
     <row r="187" ht="13.55" customHeight="1" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
     <row r="188" ht="13.55" customHeight="1" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+        <v>423</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="189" ht="13.55" customHeight="1" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
     <row r="190" ht="13.55" customHeight="1" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
     <row r="191" ht="13.55" customHeight="1" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
     <row r="192" ht="13.55" customHeight="1" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
     <row r="193" ht="13.55" customHeight="1" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
     <row r="194" ht="13.55" customHeight="1" spans="1:6">
       <c r="A194" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
     <row r="195" ht="13.55" customHeight="1" spans="1:6">
       <c r="A195" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
     <row r="196" ht="13.55" customHeight="1" spans="1:6">
       <c r="A196" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
     <row r="197" ht="13.55" customHeight="1" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
     <row r="198" ht="13.55" customHeight="1" spans="1:6">
       <c r="A198" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
     <row r="199" ht="13.55" customHeight="1" spans="1:6">
       <c r="A199" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
     <row r="200" ht="13.55" customHeight="1" spans="1:6">
       <c r="A200" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" ht="13.55" customHeight="1" spans="1:6">
       <c r="A201" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
     <row r="202" ht="13.55" customHeight="1" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
     <row r="203" ht="13.55" customHeight="1" spans="1:6">
       <c r="A203" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
+        <v>457</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="204" ht="13.55" customHeight="1" spans="1:6">
       <c r="A204" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
     <row r="205" ht="13.55" customHeight="1" spans="1:6">
       <c r="A205" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
     <row r="206" ht="13.55" customHeight="1" spans="1:6">
       <c r="A206" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
     <row r="207" ht="13.55" customHeight="1" spans="1:6">
       <c r="A207" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
     <row r="208" ht="13.55" customHeight="1" spans="1:6">
       <c r="A208" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
     <row r="209" ht="13.55" customHeight="1" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
     <row r="210" ht="13.55" customHeight="1" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
     <row r="211" ht="13.55" customHeight="1" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
     <row r="212" ht="13.55" customHeight="1" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
     <row r="213" ht="13.55" customHeight="1" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
     <row r="214" ht="13.55" customHeight="1" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
     <row r="215" ht="13.55" customHeight="1" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
     <row r="216" ht="13.55" customHeight="1" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" ht="13.55" customHeight="1" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
     <row r="218" ht="13.55" customHeight="1" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
     <row r="219" ht="13.55" customHeight="1" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
     <row r="220" ht="13.55" customHeight="1" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" ht="13.55" customHeight="1" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
     <row r="222" ht="13.55" customHeight="1" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
     <row r="223" ht="13.55" customHeight="1" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
     <row r="224" ht="13.55" customHeight="1" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
+        <v>506</v>
+      </c>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
     </row>
     <row r="225" ht="13.55" customHeight="1" spans="1:6">
       <c r="A225" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
     <row r="226" ht="13.55" customHeight="1" spans="1:6">
       <c r="A226" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
     <row r="227" ht="13.55" customHeight="1" spans="1:6">
       <c r="A227" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
     <row r="228" ht="13.55" customHeight="1" spans="1:6">
       <c r="A228" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
     <row r="229" ht="13.55" customHeight="1" spans="1:6">
       <c r="A229" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
     <row r="230" ht="13.55" customHeight="1" spans="1:6">
       <c r="A230" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
     <row r="231" ht="13.55" customHeight="1" spans="1:6">
       <c r="A231" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
     <row r="232" ht="13.55" customHeight="1" spans="1:6">
       <c r="A232" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
     <row r="233" ht="13.55" customHeight="1" spans="1:6">
       <c r="A233" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
     <row r="234" ht="13.55" customHeight="1" spans="1:6">
       <c r="A234" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
     <row r="235" ht="13.55" customHeight="1" spans="1:6">
       <c r="A235" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
     <row r="236" ht="13.55" customHeight="1" spans="1:6">
       <c r="A236" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
     <row r="237" ht="13.55" customHeight="1" spans="1:6">
       <c r="A237" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
     <row r="238" ht="13.55" customHeight="1" spans="1:6">
       <c r="A238" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
     <row r="239" ht="13.55" customHeight="1" spans="1:6">
       <c r="A239" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
     <row r="240" ht="13.55" customHeight="1" spans="1:6">
       <c r="A240" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
     <row r="241" ht="13.55" customHeight="1" spans="1:6">
       <c r="A241" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
     <row r="242" ht="13.55" customHeight="1" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
     <row r="243" ht="13.55" customHeight="1" spans="1:6">
       <c r="A243" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
     <row r="244" ht="13.55" customHeight="1" spans="1:6">
       <c r="A244" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
     <row r="245" ht="13.55" customHeight="1" spans="1:6">
       <c r="A245" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
+        <v>549</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="246" ht="13.55" customHeight="1" spans="1:6">
       <c r="A246" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="247" ht="13.55" customHeight="1" spans="1:6">
       <c r="A247" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
     <row r="248" ht="13.55" customHeight="1" spans="1:6">
       <c r="A248" s="2" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" ht="13.55" customHeight="1" spans="1:6">
       <c r="A249" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
     <row r="250" ht="13.55" customHeight="1" spans="1:6">
       <c r="A250" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
     <row r="251" ht="13.55" customHeight="1" spans="1:6">
       <c r="A251" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
     <row r="252" ht="13.55" customHeight="1" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
     <row r="253" ht="13.55" customHeight="1" spans="1:6">
       <c r="A253" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
     <row r="254" ht="13.55" customHeight="1" spans="1:6">
       <c r="A254" s="2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
     <row r="255" ht="13.55" customHeight="1" spans="1:6">
       <c r="A255" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
     <row r="256" ht="13.55" customHeight="1" spans="1:6">
       <c r="A256" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
     <row r="257" ht="13.55" customHeight="1" spans="1:6">
       <c r="A257" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
     <row r="258" ht="13.55" customHeight="1" spans="1:6">
       <c r="A258" s="2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
     <row r="259" ht="13.55" customHeight="1" spans="1:6">
       <c r="A259" s="2" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
     <row r="260" ht="13.55" customHeight="1" spans="1:6">
       <c r="A260" s="2" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
     <row r="261" ht="13.55" customHeight="1" spans="1:6">
       <c r="A261" s="2" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
     <row r="262" ht="13.55" customHeight="1" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
     <row r="263" ht="13.55" customHeight="1" spans="1:6">
       <c r="A263" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
     <row r="264" ht="13.55" customHeight="1" spans="1:6">
       <c r="A264" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
     <row r="265" ht="13.55" customHeight="1" spans="1:6">
       <c r="A265" s="2" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
     <row r="266" ht="13.55" customHeight="1" spans="1:6">
       <c r="A266" s="2" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
     <row r="267" ht="13.55" customHeight="1" spans="1:6">
       <c r="A267" s="2" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
     <row r="268" ht="13.55" customHeight="1" spans="1:6">
       <c r="A268" s="2" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
     <row r="269" ht="13.55" customHeight="1" spans="1:6">
       <c r="A269" s="2" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
     <row r="270" ht="13.55" customHeight="1" spans="1:6">
       <c r="A270" s="2" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
     <row r="271" ht="13.55" customHeight="1" spans="1:6">
       <c r="A271" s="2" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
     <row r="272" ht="13.55" customHeight="1" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
     <row r="273" ht="13.55" customHeight="1" spans="1:6">
       <c r="A273" s="2" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
     <row r="274" ht="13.55" customHeight="1" spans="1:6">
       <c r="A274" s="2" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
     <row r="275" ht="13.55" customHeight="1" spans="1:6">
       <c r="A275" s="2" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
     <row r="276" ht="13.55" customHeight="1" spans="1:6">
       <c r="A276" s="2" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
     <row r="277" ht="13.55" customHeight="1" spans="1:6">
       <c r="A277" s="2" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
     <row r="278" ht="13.55" customHeight="1" spans="1:6">
       <c r="A278" s="2" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
     <row r="279" ht="13.55" customHeight="1" spans="1:6">
       <c r="A279" s="2" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
     <row r="280" ht="13.55" customHeight="1" spans="1:6">
       <c r="A280" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
     </row>
     <row r="281" ht="13.55" customHeight="1" spans="1:6">
       <c r="A281" s="2" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
     </row>
     <row r="282" ht="13.55" customHeight="1" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
     </row>
     <row r="283" ht="13.55" customHeight="1" spans="1:6">
       <c r="A283" s="2" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
     <row r="284" ht="13.55" customHeight="1" spans="1:6">
       <c r="A284" s="2" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
     </row>
     <row r="285" ht="13.55" customHeight="1" spans="1:6">
       <c r="A285" s="2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
     <row r="286" ht="13.55" customHeight="1" spans="1:6">
       <c r="A286" s="2" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
     </row>
     <row r="287" ht="13.55" customHeight="1" spans="1:6">
       <c r="A287" s="2" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
     <row r="288" ht="13.55" customHeight="1" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
     </row>
     <row r="289" ht="13.55" customHeight="1" spans="1:6">
       <c r="A289" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
     <row r="290" ht="13.55" customHeight="1" spans="1:6">
       <c r="A290" s="2" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
     <row r="291" ht="13.55" customHeight="1" spans="1:6">
       <c r="A291" s="2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
     </row>
     <row r="292" ht="13.55" customHeight="1" spans="1:6">
       <c r="A292" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
     <row r="293" ht="13.55" customHeight="1" spans="1:6">
       <c r="A293" s="2" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
     </row>
     <row r="294" ht="13.55" customHeight="1" spans="1:6">
       <c r="A294" s="2" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
     </row>
     <row r="295" ht="13.55" customHeight="1" spans="1:6">
       <c r="A295" s="2" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
     <row r="296" ht="13.55" customHeight="1" spans="1:6">
       <c r="A296" s="2" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
     </row>
     <row r="297" ht="13.55" customHeight="1" spans="1:6">
       <c r="A297" s="2" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
     </row>
     <row r="298" ht="13.55" customHeight="1" spans="1:6">
       <c r="A298" s="2" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
     </row>
     <row r="299" ht="13.55" customHeight="1" spans="1:6">
       <c r="A299" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
     <row r="300" ht="13.55" customHeight="1" spans="1:6">
       <c r="A300" s="2" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
     </row>
     <row r="301" ht="13.55" customHeight="1" spans="1:6">
       <c r="A301" s="2" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
     </row>
     <row r="302" ht="13.55" customHeight="1" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
     </row>
     <row r="303" ht="13.55" customHeight="1" spans="1:6">
       <c r="A303" s="2" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
     <row r="304" ht="13.55" customHeight="1" spans="1:6">
       <c r="A304" s="2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
     <row r="305" ht="13.55" customHeight="1" spans="1:6">
       <c r="A305" s="2" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
     </row>
     <row r="306" ht="13.55" customHeight="1" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
     <row r="307" ht="13.55" customHeight="1" spans="1:6">
       <c r="A307" s="2" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
     </row>
     <row r="308" ht="13.55" customHeight="1" spans="1:6">
       <c r="A308" s="2" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>674</v>
+      <c r="C308" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
+        <v>681</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="309" ht="13.55" customHeight="1" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
     </row>
     <row r="310" ht="13.55" customHeight="1" spans="1:6">
       <c r="A310" s="2" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
     </row>
     <row r="311" ht="13.55" customHeight="1" spans="1:6">
       <c r="A311" s="2" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
     <row r="312" ht="13.55" customHeight="1" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
     </row>
     <row r="313" ht="13.55" customHeight="1" spans="1:6">
       <c r="A313" s="2" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
     <row r="314" ht="13.55" customHeight="1" spans="1:6">
       <c r="A314" s="2" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
     </row>
     <row r="315" ht="13.55" customHeight="1" spans="1:6">
       <c r="A315" s="2" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
     <row r="316" ht="13.55" customHeight="1" spans="1:6">
       <c r="A316" s="2" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
     </row>
     <row r="317" ht="13.55" customHeight="1" spans="1:6">
       <c r="A317" s="2" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
     <row r="318" ht="13.55" customHeight="1" spans="1:6">
       <c r="A318" s="2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
     </row>
     <row r="319" ht="13.55" customHeight="1" spans="1:6">
       <c r="A319" s="4" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
     <row r="320" ht="13.55" customHeight="1" spans="1:6">
       <c r="A320" s="2" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
     </row>
     <row r="321" ht="13.55" customHeight="1" spans="1:6">
       <c r="A321" s="2" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
     <row r="322" ht="13.55" customHeight="1" spans="1:6">
       <c r="A322" s="2" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
     </row>
     <row r="323" ht="13.55" customHeight="1" spans="1:6">
       <c r="A323" s="2" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
     <row r="324" ht="13.55" customHeight="1" spans="1:6">
       <c r="A324" s="2" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
     </row>
     <row r="325" ht="13.55" customHeight="1" spans="1:6">
       <c r="A325" s="2" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
     </row>
     <row r="326" ht="13.55" customHeight="1" spans="1:6">
       <c r="A326" s="2" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
     </row>
     <row r="327" ht="13.55" customHeight="1" spans="1:6">
       <c r="A327" s="2" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
     <row r="328" ht="13.55" customHeight="1" spans="1:6">
       <c r="A328" s="2" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
     </row>
     <row r="329" ht="13.55" customHeight="1" spans="1:6">
       <c r="A329" s="2" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
     <row r="330" ht="13.55" customHeight="1" spans="1:6">
       <c r="A330" s="2" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
     </row>
     <row r="331" ht="13.55" customHeight="1" spans="1:6">
       <c r="A331" s="2" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
     <row r="332" ht="13.55" customHeight="1" spans="1:6">
       <c r="A332" s="2" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
     <row r="333" ht="13.55" customHeight="1" spans="1:6">
       <c r="A333" s="2" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
     <row r="334" ht="13.55" customHeight="1" spans="1:6">
       <c r="A334" s="2" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
     </row>
     <row r="335" ht="13.55" customHeight="1" spans="1:6">
-      <c r="A335" s="2" t="s">
-        <v>727</v>
+      <c r="A335" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>727</v>
+        <v>738</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
     <row r="336" ht="13.55" customHeight="1" spans="1:6">
       <c r="A336" s="2" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
     </row>
     <row r="337" ht="13.55" customHeight="1" spans="1:6">
       <c r="A337" s="2" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>732</v>
+      <c r="C337" s="4" t="s">
+        <v>742</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
     </row>
     <row r="338" ht="13.55" customHeight="1" spans="1:6">
       <c r="A338" s="2" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
     </row>
     <row r="339" ht="13.55" customHeight="1" spans="1:6">
       <c r="A339" s="2" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
     </row>
     <row r="340" ht="13.55" customHeight="1" spans="1:6">
       <c r="A340" s="2" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
     </row>
     <row r="341" ht="13.55" customHeight="1" spans="1:6">
       <c r="A341" s="2" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
     </row>
     <row r="342" ht="13.55" customHeight="1" spans="1:6">
       <c r="A342" s="2" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
     </row>
     <row r="343" ht="13.55" customHeight="1" spans="1:6">
       <c r="A343" s="2" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
     <row r="344" ht="13.55" customHeight="1" spans="1:6">
       <c r="A344" s="2" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
     <row r="345" ht="13.55" customHeight="1" spans="1:6">
       <c r="A345" s="2" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
     </row>
     <row r="346" ht="13.55" customHeight="1" spans="1:6">
       <c r="A346" s="2" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
     </row>
     <row r="347" ht="13.55" customHeight="1" spans="1:6">
       <c r="A347" s="2" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
     </row>
     <row r="348" ht="13.55" customHeight="1" spans="1:6">
       <c r="A348" s="2" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
     </row>
     <row r="349" ht="13.55" customHeight="1" spans="1:6">
       <c r="A349" s="2" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
     </row>
     <row r="350" ht="13.55" customHeight="1" spans="1:6">
       <c r="A350" s="2" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
     </row>
     <row r="351" ht="13.55" customHeight="1" spans="1:6">
       <c r="A351" s="2" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
     <row r="352" ht="13.55" customHeight="1" spans="1:6">
       <c r="A352" s="2" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
     </row>
     <row r="353" ht="13.55" customHeight="1" spans="1:6">
       <c r="A353" s="2" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
     </row>
     <row r="354" ht="13.55" customHeight="1" spans="1:6">
       <c r="A354" s="2" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
     </row>
     <row r="355" ht="13.55" customHeight="1" spans="1:6">
       <c r="A355" s="2" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
     </row>
     <row r="356" ht="13.55" customHeight="1" spans="1:6">
       <c r="A356" s="2" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
     <row r="357" ht="13.55" customHeight="1" spans="1:6">
       <c r="A357" s="2" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
     <row r="358" ht="13.55" customHeight="1" spans="1:6">
       <c r="A358" s="2" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="359" ht="13.55" customHeight="1" spans="1:6">
       <c r="A359" s="2" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="360" ht="13.55" customHeight="1" spans="1:6">
       <c r="A360" s="2" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
     </row>
     <row r="361" ht="13.55" customHeight="1" spans="1:6">
       <c r="A361" s="2" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
     </row>
     <row r="362" ht="13.55" customHeight="1" spans="1:6">
       <c r="A362" s="2" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
     </row>
     <row r="363" ht="13.55" customHeight="1" spans="1:6">
       <c r="A363" s="2" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
     <row r="364" ht="13.55" customHeight="1" spans="1:6">
       <c r="A364" s="2" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
     </row>
     <row r="365" ht="13.55" customHeight="1" spans="1:6">
       <c r="A365" s="2" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
     <row r="366" ht="13.55" customHeight="1" spans="1:6">
       <c r="A366" s="2" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
     </row>
     <row r="367" ht="13.55" customHeight="1" spans="1:6">
       <c r="A367" s="2" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
     <row r="368" ht="13.55" customHeight="1" spans="1:6">
       <c r="A368" s="2" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
     </row>
     <row r="369" ht="13.55" customHeight="1" spans="1:6">
       <c r="A369" s="2" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
     <row r="370" ht="13.55" customHeight="1" spans="1:6">
       <c r="A370" s="2" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
     </row>
     <row r="371" ht="13.55" customHeight="1" spans="1:6">
       <c r="A371" s="2" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
     </row>
     <row r="372" ht="13.55" customHeight="1" spans="1:6">
       <c r="A372" s="2" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="373" ht="13.55" customHeight="1" spans="1:6">
       <c r="A373" s="2" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
     <row r="374" ht="13.55" customHeight="1" spans="1:6">
       <c r="A374" s="2" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
     </row>
     <row r="375" ht="13.55" customHeight="1" spans="1:6">
       <c r="A375" s="2" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
     <row r="376" ht="13.55" customHeight="1" spans="1:6">
       <c r="A376" s="2" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
     </row>
     <row r="377" ht="13.55" customHeight="1" spans="1:6">
       <c r="A377" s="2" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
     <row r="378" ht="13.55" customHeight="1" spans="1:6">
       <c r="A378" s="2" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="379" ht="13.55" customHeight="1" spans="1:6">
       <c r="A379" s="2" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
     <row r="380" ht="13.55" customHeight="1" spans="1:6">
       <c r="A380" s="2" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>834</v>
+      <c r="C380" s="4" t="s">
+        <v>844</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
     </row>
     <row r="381" ht="13.55" customHeight="1" spans="1:6">
       <c r="A381" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
     </row>
     <row r="382" ht="13.55" customHeight="1" spans="1:6">
       <c r="A382" s="2" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
     </row>
     <row r="383" ht="13.55" customHeight="1" spans="1:6">
       <c r="A383" s="2" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
     </row>
     <row r="384" ht="13.55" customHeight="1" spans="1:6">
       <c r="A384" s="2" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
     </row>
     <row r="385" ht="13.55" customHeight="1" spans="1:6">
       <c r="A385" s="2" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
     </row>
     <row r="386" ht="13.55" customHeight="1" spans="1:6">
       <c r="A386" s="2" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
     </row>
     <row r="387" ht="13.55" customHeight="1" spans="1:6">
       <c r="A387" s="2" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
     <row r="388" ht="13.55" customHeight="1" spans="1:6">
       <c r="A388" s="2" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
     </row>
     <row r="389" ht="13.55" customHeight="1" spans="1:6">
       <c r="A389" s="2" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
     </row>
     <row r="390" ht="13.55" customHeight="1" spans="1:6">
       <c r="A390" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
     </row>
     <row r="391" ht="13.55" customHeight="1" spans="1:6">
       <c r="A391" s="2" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
     <row r="392" ht="13.55" customHeight="1" spans="1:6">
       <c r="A392" s="2" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
     </row>
     <row r="393" ht="13.55" customHeight="1" spans="1:6">
       <c r="A393" s="2" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
     </row>
     <row r="394" ht="13.55" customHeight="1" spans="1:6">
       <c r="A394" s="2" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
     </row>
     <row r="395" ht="13.55" customHeight="1" spans="1:6">
       <c r="A395" s="2" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
     </row>
     <row r="396" ht="13.55" customHeight="1" spans="1:6">
       <c r="A396" s="2" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="397" ht="13.55" customHeight="1" spans="1:6">
       <c r="A397" s="2" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
     <row r="398" ht="13.55" customHeight="1" spans="1:6">
       <c r="A398" s="2" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
     </row>
     <row r="399" ht="13.55" customHeight="1" spans="1:6">
       <c r="A399" s="2" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
     </row>
     <row r="400" ht="13.55" customHeight="1" spans="1:6">
       <c r="A400" s="2" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
     </row>
     <row r="401" ht="13.55" customHeight="1" spans="1:6">
       <c r="A401" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
     </row>
     <row r="402" ht="13.55" customHeight="1" spans="1:6">
       <c r="A402" s="2" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
     </row>
     <row r="403" ht="13.55" customHeight="1" spans="1:6">
       <c r="A403" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
     </row>
     <row r="404" ht="13.55" customHeight="1" spans="1:6">
       <c r="A404" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
     </row>
     <row r="405" ht="13.55" customHeight="1" spans="1:6">
       <c r="A405" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>888</v>
+      <c r="C405" s="4" t="s">
+        <v>898</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
     </row>
     <row r="406" ht="13.55" customHeight="1" spans="1:6">
       <c r="A406" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
     </row>
     <row r="407" ht="13.55" customHeight="1" spans="1:6">
       <c r="A407" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
     </row>
     <row r="408" ht="13.55" customHeight="1" spans="1:6">
       <c r="A408" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
     </row>
     <row r="409" ht="13.55" customHeight="1" spans="1:6">
       <c r="A409" s="2" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="410" ht="13.55" customHeight="1" spans="1:6">
       <c r="A410" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
     </row>
     <row r="411" ht="13.55" customHeight="1" spans="1:6">
       <c r="A411" s="2" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
     </row>
     <row r="412" ht="13.55" customHeight="1" spans="1:6">
       <c r="A412" s="2" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
     </row>
     <row r="413" ht="13.55" customHeight="1" spans="1:6">
       <c r="A413" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
     </row>
     <row r="414" ht="13.55" customHeight="1" spans="1:6">
       <c r="A414" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
     </row>
     <row r="415" ht="13.55" customHeight="1" spans="1:6">
       <c r="A415" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
     </row>
     <row r="416" ht="13.55" customHeight="1" spans="1:6">
       <c r="A416" s="2" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
     </row>
     <row r="417" ht="13.55" customHeight="1" spans="1:6">
       <c r="A417" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
     </row>
     <row r="418" ht="13.55" customHeight="1" spans="1:6">
       <c r="A418" s="2" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
     </row>
     <row r="419" ht="13.55" customHeight="1" spans="1:6">
       <c r="A419" s="2" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
     </row>
     <row r="420" ht="13.55" customHeight="1" spans="1:6">
       <c r="A420" s="2" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
     </row>
     <row r="421" ht="13.55" customHeight="1" spans="1:6">
       <c r="A421" s="2" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
     <row r="422" ht="13.55" customHeight="1" spans="1:6">
       <c r="A422" s="2" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
     </row>
     <row r="423" ht="13.55" customHeight="1" spans="1:6">
       <c r="A423" s="2" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
     </row>
     <row r="424" ht="13.55" customHeight="1" spans="1:6">
       <c r="A424" s="2" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
     </row>
     <row r="425" ht="13.55" customHeight="1" spans="1:6">
       <c r="A425" s="2" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
     </row>
     <row r="426" ht="13.55" customHeight="1" spans="1:6">
       <c r="A426" s="2" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
     </row>
     <row r="427" ht="13.55" customHeight="1" spans="1:6">
       <c r="A427" s="2" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
     </row>
     <row r="428" ht="13.55" customHeight="1" spans="1:6">
       <c r="A428" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
     </row>
     <row r="429" ht="13.55" customHeight="1" spans="1:6">
       <c r="A429" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="430" ht="13.55" customHeight="1" spans="1:6">
       <c r="A430" s="2" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
     </row>
     <row r="431" ht="13.55" customHeight="1" spans="1:6">
       <c r="A431" s="2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
     <row r="432" ht="13.55" customHeight="1" spans="1:6">
       <c r="A432" s="2" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
     </row>
     <row r="433" ht="13.55" customHeight="1" spans="1:6">
       <c r="A433" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
     <row r="434" ht="13.55" customHeight="1" spans="1:6">
       <c r="A434" s="2" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
     </row>
     <row r="435" ht="13.55" customHeight="1" spans="1:6">
       <c r="A435" s="2" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
     </row>
     <row r="436" ht="13.55" customHeight="1" spans="1:6">
       <c r="A436" s="2" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
     </row>
     <row r="437" ht="13.55" customHeight="1" spans="1:6">
       <c r="A437" s="2" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
     </row>
     <row r="438" ht="13.55" customHeight="1" spans="1:6">
       <c r="A438" s="2" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
     </row>
     <row r="439" ht="13.55" customHeight="1" spans="1:6">
       <c r="A439" s="2" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="E439" s="5" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="440" ht="13.55" customHeight="1" spans="1:6">
       <c r="A440" s="2" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
     </row>
     <row r="441" ht="13.55" customHeight="1" spans="1:6">
       <c r="A441" s="2" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
     </row>
     <row r="442" ht="13.55" customHeight="1" spans="1:6">
       <c r="A442" s="2" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
     </row>
     <row r="443" ht="13.55" customHeight="1" spans="1:6">
       <c r="A443" s="2" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>

--- a/backend/common/primary_data/中学banding信息_new.xlsx
+++ b/backend/common/primary_data/中学banding信息_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -155,6 +161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -241,6 +253,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -264,6 +282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -422,6 +446,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -445,6 +475,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -486,6 +522,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -509,6 +551,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -639,6 +687,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -662,6 +716,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -838,6 +898,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -861,6 +927,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1070,6 +1142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1093,6 +1171,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1182,6 +1266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1205,6 +1295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1266,6 +1362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1289,6 +1391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1318,6 +1426,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1341,6 +1455,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1430,6 +1550,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1453,6 +1579,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1578,6 +1710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1601,6 +1739,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1636,6 +1780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1659,6 +1809,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1694,6 +1850,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1717,6 +1879,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1746,6 +1914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1769,6 +1943,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1939,6 +2119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -1962,6 +2148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2057,6 +2249,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2080,6 +2278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2121,6 +2325,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2162,6 +2372,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2301,6 +2517,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2324,6 +2546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2371,6 +2599,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2394,6 +2628,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2587,6 +2827,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2610,6 +2856,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2639,6 +2891,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2662,6 +2920,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2697,6 +2961,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -2720,6 +2990,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3103,6 +3379,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3126,6 +3408,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3304,7 +3592,7 @@
     <t>威靈頓教育機構張沛松紀念中學</t>
   </si>
   <si>
-    <t>卫理中学</t>
+    <t>衞理中学</t>
   </si>
   <si>
     <t>衞理中學</t>
@@ -3383,6 +3671,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3406,6 +3700,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3441,6 +3741,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3464,6 +3770,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3511,6 +3823,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3534,6 +3852,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3569,6 +3893,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3592,6 +3922,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3633,6 +3969,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3674,6 +4016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3721,6 +4069,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3744,6 +4098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3845,6 +4205,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3904,6 +4270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -3999,6 +4371,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4022,6 +4400,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4069,6 +4453,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4092,6 +4482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4199,6 +4595,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4222,6 +4624,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4323,6 +4731,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4346,6 +4760,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4429,6 +4849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4452,6 +4878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4535,6 +4967,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4558,6 +4996,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4641,6 +5085,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -4664,6 +5114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>["</t>
     </r>
     <r>
@@ -6548,8 +7004,8 @@
   </sheetPr>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -12013,7 +12469,7 @@
       <c r="B335" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="4" t="s">
         <v>738</v>
       </c>
       <c r="D335" s="4" t="s">

--- a/backend/common/primary_data/中学banding信息_new.xlsx
+++ b/backend/common/primary_data/中学banding信息_new.xlsx
@@ -7004,8 +7004,8 @@
   </sheetPr>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="E315" sqref="E315"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
